--- a/biology/Botanique/Ammodendron/Ammodendron.xlsx
+++ b/biology/Botanique/Ammodendron/Ammodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammodendron est un genre de plantes de la famille des Fabaceae (Légumineuses), sous-famille des Faboideae, originaire de l'Asie centrale (du Kazakhstan, jusqu'à l'Iran et au nord-ouest de la Chine), qui comprend cinq espèces acceptées.
 Ce sont des arbustes, pubescents, blanc argenté, aux feuilles composées paripennées, prolongées en épine à l'apex du rachis.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique, Ammodendron, est dérivé de deux racines du grec :  άμμος (ammos), « sable » et δένδρον (dendron), « arbre ».
 </t>
@@ -543,7 +557,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est appelé en russe, песчаная акация (pestchanaïa akatsia), et en anglais, sand acacias, ce qui signifie dans les deux langues « acacias des sables ».
 </t>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (29 avril 2019)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (29 avril 2019) :
 Ammodendron bifolium (Pall.)  Yakovlev
 Ammodendron conollyi Boiss.
 Ammodendron eichwaldii Lebed.
